--- a/biology/Botanique/Magnolia_virginiana/Magnolia_virginiana.xlsx
+++ b/biology/Botanique/Magnolia_virginiana/Magnolia_virginiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia virginiana est une espèce d'arbres de la famille des Magnoliaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Magnolia est une plante ou un arbre qui vit dans les forêts tropicales, équatoriales ou dans l'hémisphère Nord et l'hémisphère Sud. Le Magnolia produit des fleurs. Ces fleurs poussent sur le bout de ces tiges, qui sont elles-mêmes longues et composées de nombreuses grandes feuilles vertes. Les fleurs de Magnolia sont souvent blanches, mais peuvent être rose, par exemple. Les feuilles sont disposées par cinq ou six par rangée.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,19 +584,21 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013) :
 Magnolia virginiana L. (1753)
 variété Magnolia virginiana var. australis Sarg. (1919)
 sous-espèce Magnolia virginiana subsp. oviedoae Palmarola, M.S.Romanov &amp; A.V.Bobrov (2008)
 sous-espèce Magnolia virginiana subsp. virginiana
-Selon NCBI  (30 décembre 2013)[3] :
+Selon NCBI  (30 décembre 2013) :
 variété Magnolia virginiana var. australis
-Selon The Plant List            (30 décembre 2013)[4] :
+Selon The Plant List            (30 décembre 2013) :
 sous-espèce Magnolia virginiana subsp. virginiana
 variété Magnolia virginiana var. australis Sarg.
-Selon Tropicos                                           (30 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnolia virginiana subsp. australis (Sarg.) A.E. Murray
 sous-espèce Magnolia virginiana subsp. oviedoae Palmarola, M.S. Romanov &amp; A.V. Bobrov
 sous-espèce Magnolia virginiana subsp. virginiana
